--- a/config/default/forms/contact/clinic-create.xlsx
+++ b/config/default/forms/contact/clinic-create.xlsx
@@ -162,10 +162,10 @@
     <t xml:space="preserve">Clinic No</t>
   </si>
   <si>
-    <t xml:space="preserve">regex(., ‘^[A-Za-z0-9._%+-]{1,15}$’)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accepts up to 15 characters</t>
+    <t xml:space="preserve">regex(., ‘^[A-Za-z0-9._%+-\/]{1,15}$’)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accepts upto 15 characters (numbers, letters, dashes, slashes and underscores only)</t>
   </si>
   <si>
     <t xml:space="preserve">id_delimiter</t>
@@ -405,7 +405,7 @@
     <t xml:space="preserve">patient_nationality</t>
   </si>
   <si>
-    <t xml:space="preserve">Nationality</t>
+    <t xml:space="preserve">County of origin</t>
   </si>
   <si>
     <t xml:space="preserve">text</t>
@@ -2511,7 +2511,7 @@
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="166" formatCode="DD\-MM\-YYYY\ HH\-MM\-SS"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2582,12 +2582,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2768,7 +2762,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2780,7 +2774,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2796,7 +2790,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2804,11 +2798,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2820,7 +2814,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4910,28 +4904,28 @@
   </sheetPr>
   <dimension ref="A1:N73"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="J26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B36" activeCellId="0" sqref="B36"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="J7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="65.3367346938776"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="47.969387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="70.3775510204082"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.5204081632653"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="76.0459183673469"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.75"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="56.1581632653061"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="47.1581632653061"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="107.362244897959"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.5204081632653"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="36.265306122449"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="20.5204081632653"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="43.1071428571429"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="20.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="72.5357142857143"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="53.1887755102041"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="78.2959183673469"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.7704081632653"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="84.5051020408163"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="27.3571428571429"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="62.4540816326531"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="52.4642857142857"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="119.423469387755"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="22.7704081632653"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="40.3163265306123"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="22.7704081632653"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="47.8775510204082"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="22.7704081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6054,7 +6048,7 @@
         <v>130</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -7655,10 +7649,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.5357142857143"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="44.9081632653061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="56.6989795918367"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="20.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.5867346938776"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="49.9489795918367"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="62.9948979591837"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="22.7704081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -28179,9 +28173,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="20.5204081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.0255102040816"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="20.5204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="22.7704081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.6275510204082"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="22.7704081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -28216,7 +28210,7 @@
       </c>
       <c r="C2" s="32" t="n">
         <f aca="true">NOW()</f>
-        <v>44067.5997130677</v>
+        <v>44084.6906147725</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>823</v>
